--- a/outputs/w3.xlsx
+++ b/outputs/w3.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.9879375</v>
+        <v>84.97284411764706</v>
       </c>
       <c r="C3" t="n">
         <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>1.558475</v>
+        <v>1.557194117647059</v>
       </c>
       <c r="E3" t="n">
-        <v>1.370646875</v>
+        <v>1.364147058823529</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2794523802853757</v>
+        <v>0.2736384448230885</v>
       </c>
     </row>
     <row r="4">
@@ -517,13 +517,13 @@
         <v>200</v>
       </c>
       <c r="D4" t="n">
-        <v>1.5396</v>
+        <v>1.5315</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3192</v>
+        <v>1.2317</v>
       </c>
       <c r="F4" t="n">
-        <v>0.222750691031329</v>
+        <v>0.1586944013956513</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>84.51632499999999</v>
+        <v>84.5338</v>
       </c>
       <c r="C5" t="n">
         <v>200</v>
       </c>
       <c r="D5" t="n">
-        <v>1.548875</v>
+        <v>1.547675</v>
       </c>
       <c r="E5" t="n">
-        <v>1.33655</v>
+        <v>1.332575</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2411842705124659</v>
+        <v>0.2352526942819191</v>
       </c>
     </row>
     <row r="6">
@@ -555,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.0082</v>
+        <v>84.99975000000001</v>
       </c>
       <c r="C6" t="n">
         <v>200</v>
       </c>
       <c r="D6" t="n">
-        <v>1.55775</v>
+        <v>1.55695</v>
       </c>
       <c r="E6" t="n">
-        <v>1.36435</v>
+        <v>1.35935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2766368778331553</v>
+        <v>0.2729490389932318</v>
       </c>
     </row>
     <row r="7">
@@ -577,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.3006</v>
+        <v>85.278775</v>
       </c>
       <c r="C7" t="n">
         <v>200</v>
       </c>
       <c r="D7" t="n">
-        <v>1.567475</v>
+        <v>1.5672</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3913</v>
+        <v>1.389</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3062235140756119</v>
+        <v>0.3037659865664539</v>
       </c>
     </row>
     <row r="8">
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.4462914531211999</v>
+        <v>0.4390985174134072</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01225719012161513</v>
+        <v>0.01303142916826692</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04101629876174721</v>
+        <v>0.04822734817818068</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04238014590101453</v>
+        <v>0.0476819166845391</v>
       </c>
     </row>
   </sheetData>
